--- a/data/markers_for_extract/receptor_binding_alteration.xlsx
+++ b/data/markers_for_extract/receptor_binding_alteration.xlsx
@@ -29,12 +29,8 @@
 </workbook>
 </file>
 
-<file path=xl/cellimages.xml><?xml version="1.0" encoding="utf-8"?>
-<etc:cellImages xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData"/>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="302">
   <si>
     <t>Protein Type</t>
   </si>
@@ -54,7 +50,7 @@
     <t>239[EG]</t>
   </si>
   <si>
-    <t xml:space="preserve">Free binding energy analysis suggested that a D239E/G mutation tended to decrease the affinity of the H1 subtype IAV to the sialic acid receptor. </t>
+    <t>Free binding energy analysis suggested that a D239E/G mutation tended to decrease the affinity of the H1 subtype IAV to the sialic acid receptor.</t>
   </si>
   <si>
     <t>222G</t>
@@ -63,7 +59,7 @@
     <t>20844044&amp;16343533</t>
   </si>
   <si>
-    <t xml:space="preserve"> Virus attachment studies further indicated that pdmH1N1 with D222G acquired dual receptor specificity for complex α2,3- and α2,6-linked sialic acids.It has previously been reported that the introduction of D222G in HA of 1918 virus resulted in increased binding to α2,3-SAs and reduced binding to α2,6-SAs in glycan arrays.</t>
+    <t>Virus attachment studies further indicated that pdmH1N1 with D222G acquired dual receptor specificity for complex α2,3- and α2,6-linked sialic acids.It has previously been reported that the introduction of D222G in HA of 1918 virus resulted in increased binding to α2,3-SAs and reduced binding to α2,6-SAs in glycan arrays.</t>
   </si>
   <si>
     <t>200P</t>
@@ -99,7 +95,7 @@
     <t>154Q</t>
   </si>
   <si>
-    <t xml:space="preserve"> The HA K154Q mutation reduced the receptor binding affinity of A/Tennessee/560/09 virus to 6-Su-6'SLN and biantennary 6'SLN receptors. </t>
+    <t>The HA K154Q mutation reduced the receptor binding affinity of A/Tennessee/560/09 virus to 6-Su-6'SLN and biantennary 6'SLN receptors.</t>
   </si>
   <si>
     <t>186P</t>
@@ -120,13 +116,13 @@
     <t>185N</t>
   </si>
   <si>
-    <t xml:space="preserve"> Taken together with the finding of increased replication in HTBE, these data indicate that the single mutation S185N confers efficient recognition of both types of receptors, and that even when coupled with D222N, it maintains the broad tropism phenotype. </t>
+    <t>Taken together with the finding of increased replication in HTBE, these data indicate that the single mutation S185N confers efficient recognition of both types of receptors, and that even when coupled with D222N, it maintains the broad tropism phenotype.</t>
   </si>
   <si>
     <t>192K</t>
   </si>
   <si>
-    <t xml:space="preserve">Our studies indicated that the R192K mutation in the HA of H1N1 influenza A strains induced an Sb site-specific antibody escape and altered the receptor-binding avidity of the HA of oseltamivir-resistant viruses, while the two other mutations, K144E and T86K appear to be associated specifically with modified antibody interactions. </t>
+    <t>Our studies indicated that the R192K mutation in the HA of H1N1 influenza A strains induced an Sb site-specific antibody escape and altered the receptor-binding avidity of the HA of oseltamivir-resistant viruses, while the two other mutations, K144E and T86K appear to be associated specifically with modified antibody interactions.</t>
   </si>
   <si>
     <t>183P</t>
@@ -138,7 +134,7 @@
     <t>129D</t>
   </si>
   <si>
-    <t xml:space="preserve">Two other HA1 mutations, N129D and G155E, were sufficient to significantly increase binding to α2,6-linked glycans, 6′SLN and 6-Su-6′SLN, compared to S183P (↑4.1-fold, P &lt; 0.05). </t>
+    <t>Two other HA1 mutations, N129D and G155E, were sufficient to significantly increase binding to α2,6-linked glycans, 6′SLN and 6-Su-6′SLN, compared to S183P (↑4.1-fold, P &lt; 0.05).</t>
   </si>
   <si>
     <t>155E</t>
@@ -147,7 +143,7 @@
     <t>190R</t>
   </si>
   <si>
-    <t xml:space="preserve">The single mutation to arginine at position 190 slightly increased the binding affinity of the virus to the avian receptor and decreased its binding to the long human α2,6-linked sialic acid receptor. </t>
+    <t>The single mutation to arginine at position 190 slightly increased the binding affinity of the virus to the avian receptor and decreased its binding to the long human α2,6-linked sialic acid receptor.</t>
   </si>
   <si>
     <t>223R</t>
@@ -159,46 +155,19 @@
     <t>156K</t>
   </si>
   <si>
-    <t xml:space="preserve">Glycan binding assays demonstrated the N156K escape mutant had altered receptor binding preferences compared to wildtype virus, which was supported by computational modeling predictions. </t>
+    <t>Glycan binding assays demonstrated the N156K escape mutant had altered receptor binding preferences compared to wildtype virus, which was supported by computational modeling predictions.</t>
   </si>
   <si>
     <t>153E</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> Moreover, K153E</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>led to a significant decrease in binding of the CA/04+IFN-β -2 variant to 6-Su-6'SLN as compared to the other viruses.</t>
-    </r>
+    <t>Moreover, K153E1 led to a significant decrease in binding of the CA/04+IFN-β -2 variant to 6-Su-6'SLN as compared to the other viruses.</t>
   </si>
   <si>
     <t>134T</t>
   </si>
   <si>
-    <t xml:space="preserve">Variant 2 (A134T), and variant 3 (D222E, P297S) had an increased binding affinity for the receptor. </t>
+    <t>Variant 2 (A134T), and variant 3 (D222E, P297S) had an increased binding affinity for the receptor.</t>
   </si>
   <si>
     <t>222&amp;297ES</t>
@@ -222,16 +191,16 @@
     <t>Alb/58 virus, which contains the 226L/228S amino acid combination in the HA and displayed dual binding to both alpha 2,6 and alpha 2,3 glycan receptors, transmitted efficiently to naïve ferrets by respiratory droplets.(H3 numbering)</t>
   </si>
   <si>
-    <t xml:space="preserve">221&amp;223QG </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Inefficient transmission was observed with ElSalv/57 virus, which contains the 226Q/228G amino acid combination and preferentially binds alpha 2,3 over alpha 2,6 glycan receptors.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">221&amp;223LG </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> A unique transmission event with the ElSalv/57 virus occurred which produced a 226L/228G H2N2 natural variant virus that displayed an increase in binding specificity to alpha 2,6 glycan receptors and enhanced respiratory droplet transmissibility. </t>
+    <t>221&amp;223QG</t>
+  </si>
+  <si>
+    <t>Inefficient transmission was observed with ElSalv/57 virus, which contains the 226Q/228G amino acid combination and preferentially binds alpha 2,3 over alpha 2,6 glycan receptors.</t>
+  </si>
+  <si>
+    <t>221&amp;223LG</t>
+  </si>
+  <si>
+    <t>A unique transmission event with the ElSalv/57 virus occurred which produced a 226L/228G H2N2 natural variant virus that displayed an increase in binding specificity to alpha 2,6 glycan receptors and enhanced respiratory droplet transmissibility.</t>
   </si>
   <si>
     <t>H3</t>
@@ -240,7 +209,7 @@
     <t>190E</t>
   </si>
   <si>
-    <t xml:space="preserve"> Only one mutation of the NY variant (Asp190Glu) was sufficient to revert the HA receptor preference to that of classical avian strains. </t>
+    <t>Only one mutation of the NY variant (Asp190Glu) was sufficient to revert the HA receptor preference to that of classical avian strains.</t>
   </si>
   <si>
     <t>155T</t>
@@ -261,7 +230,7 @@
     <t>119R</t>
   </si>
   <si>
-    <t xml:space="preserve">246K </t>
+    <t>246K</t>
   </si>
   <si>
     <t>160[DN]</t>
@@ -309,13 +278,13 @@
     <t>103Q</t>
   </si>
   <si>
-    <t xml:space="preserve"> A His 103 Gln substitution (A (H3) numbering) in the HA1 region of the haemagglutinin which was demonstrated to significantly reduce receptor binding strength in vitro.</t>
+    <t>A His 103 Gln substitution (A (H3) numbering) in the HA1 region of the haemagglutinin which was demonstrated to significantly reduce receptor binding strength in vitro.</t>
   </si>
   <si>
     <t>98F</t>
   </si>
   <si>
-    <t xml:space="preserve"> WT MDCK cells and human erythrocytes have been reported to express abundant levels of both α2,3- and α2,6-linked cell surface sialosides (13, 15), indicating that the Y98F mutant is compromised for binding to each receptor type. </t>
+    <t>WT MDCK cells and human erythrocytes have been reported to express abundant levels of both α2,3- and α2,6-linked cell surface sialosides (13, 15), indicating that the Y98F mutant is compromised for binding to each receptor type.</t>
   </si>
   <si>
     <t>H5</t>
@@ -330,7 +299,7 @@
     <t>139&amp;182RK</t>
   </si>
   <si>
-    <t xml:space="preserve">The Thai/KAN virus also showed two amino acid changes in HA1 as compared with VN1194: Gly139→Arg and Asn182→Lys. Introduction of either mutation into the VN1194 HA enhanced SAα2,6Gal binding (Fig. 2b), and an additional increase in binding capacity was observed when both mutations were substituted simultaneously. </t>
+    <t>The Thai/KAN virus also showed two amino acid changes in HA1 as compared with VN1194: Gly139→Arg and Asn182→Lys. Introduction of either mutation into the VN1194 HA enhanced SAα2,6Gal binding (Fig. 2b), and an additional increase in binding capacity was observed when both mutations were substituted simultaneously.</t>
   </si>
   <si>
     <t>145K</t>
@@ -348,7 +317,7 @@
     <t>75&amp;123KP</t>
   </si>
   <si>
-    <t xml:space="preserve"> Different pairs of these amino acid residues substituted at positions 75, 123 and 193 (in HA1) and 167 (in HA2) produced variable increases in SAα2,6Gal recognition.</t>
+    <t>Different pairs of these amino acid residues substituted at positions 75, 123 and 193 (in HA1) and 167 (in HA2) produced variable increases in SAα2,6Gal recognition.</t>
   </si>
   <si>
     <t>N145K HA mutation increases receptor binding avidity of H3N2 strains.</t>
@@ -387,7 +356,7 @@
     <t>102V</t>
   </si>
   <si>
-    <t xml:space="preserve"> Remarkably, both strains gained the F102V and N157D mutations in their HA genes, which have never been reported before. Solid-phase direct binding assay showed that these two isolates both had dual-receptor binding characteristics, while thermal and acid stability assays indicated that they were relatively stable in high-temperature or acidic conditions</t>
+    <t>Remarkably, both strains gained the F102V and N157D mutations in their HA genes, which have never been reported before. Solid-phase direct binding assay showed that these two isolates both had dual-receptor binding characteristics, while thermal and acid stability assays indicated that they were relatively stable in high-temperature or acidic conditions</t>
   </si>
   <si>
     <t>157D</t>
@@ -405,19 +374,19 @@
     <t>227H</t>
   </si>
   <si>
-    <t xml:space="preserve">The P227H mutation in A/NWS/33(P227H)(HA)-A/Memphis/31/98(NA) (NWS-Mem/98, H1N2) results in sevenfold lower affinity for 3' sialyllactose, but binding to 6' sialyllactosamine is unchanged. </t>
+    <t>The P227H mutation in A/NWS/33(P227H)(HA)-A/Memphis/31/98(NA) (NWS-Mem/98, H1N2) results in sevenfold lower affinity for 3' sialyllactose, but binding to 6' sialyllactosamine is unchanged.</t>
   </si>
   <si>
     <t>193D</t>
   </si>
   <si>
-    <t xml:space="preserve">Several escape mutants viruses carrying the mutation N193D bound to Neu5Acalpha2-6Galbeta1-4GlcNAc considerably stronger than to Neu5Acalpha2-6Galbeta1-4Glc. </t>
+    <t>Several escape mutants viruses carrying the mutation N193D bound to Neu5Acalpha2-6Galbeta1-4GlcNAc considerably stronger than to Neu5Acalpha2-6Galbeta1-4Glc.</t>
   </si>
   <si>
     <t>137A</t>
   </si>
   <si>
-    <t xml:space="preserve">Finally, we identified mutations that increased α2,6-SA recognition (Table 1C), particularly the S137A, T192I variant that alters both the 130 loop and 190 helix. </t>
+    <t>Finally, we identified mutations that increased α2,6-SA recognition (Table 1C), particularly the S137A, T192I variant that alters both the 130 loop and 190 helix.</t>
   </si>
   <si>
     <t>192I</t>
@@ -426,7 +395,7 @@
     <t>183N</t>
   </si>
   <si>
-    <t xml:space="preserve"> These viruses had 2 other AA substitutions, H183N (5/7 isolates) and E190T, which are also related to human virus-like receptor specificity.</t>
+    <t>These viruses had 2 other AA substitutions, H183N (5/7 isolates) and E190T, which are also related to human virus-like receptor specificity.</t>
   </si>
   <si>
     <t>190T</t>
@@ -438,7 +407,7 @@
     <t>156Q</t>
   </si>
   <si>
-    <t xml:space="preserve">Introduction of substitutions R156Q and S219Y independently into Vic361e HA resulted in some increased binding to 3-SLN (Fig. 1b), but decreased binding to 6-SLN (Fig. 1e) when compared to Vic361e. </t>
+    <t>Introduction of substitutions R156Q and S219Y independently into Vic361e HA resulted in some increased binding to 3-SLN (Fig. 1b), but decreased binding to 6-SLN (Fig. 1e) when compared to Vic361e.</t>
   </si>
   <si>
     <t>219Y</t>
@@ -468,19 +437,19 @@
     <t>157L</t>
   </si>
   <si>
-    <t xml:space="preserve"> As for further validation, we have also modeled another mutation, S157L, with experimental binding affinity available (Kd increasing ∼500 times), and found a binding affinity decrease of 4.1 ± 1.0 kcal/mol, which is again in excellent agreement with experiment. </t>
+    <t>As for further validation, we have also modeled another mutation, S157L, with experimental binding affinity available (Kd increasing ∼500 times), and found a binding affinity decrease of 4.1 ± 1.0 kcal/mol, which is again in excellent agreement with experiment.</t>
   </si>
   <si>
     <t>222E</t>
   </si>
   <si>
-    <t xml:space="preserve">The HA(222E) variant showed an overall reduced binding affinity compared to that of HA(222K) for synthetic Neu5Ac2-3Gal-terminated receptor analogues, except for one analogue [Neu5Acalpha2-3Galbeta1-4(Fucalpha1-3)(6-HSO(3))GlcNAcbeta, Su-SLe(x)]. </t>
+    <t>The HA(222E) variant showed an overall reduced binding affinity compared to that of HA(222K) for synthetic Neu5Ac2-3Gal-terminated receptor analogues, except for one analogue [Neu5Acalpha2-3Galbeta1-4(Fucalpha1-3)(6-HSO(3))GlcNAcbeta, Su-SLe(x)].</t>
   </si>
   <si>
     <t>161F</t>
   </si>
   <si>
-    <t xml:space="preserve"> This Y161F mutation not only increased HA thermostability but also enhanced its binding affinity for α2,6- and α2,3-linked Neu5Ac.</t>
+    <t>This Y161F mutation not only increased HA thermostability but also enhanced its binding affinity for α2,6- and α2,3-linked Neu5Ac.</t>
   </si>
   <si>
     <t>186I</t>
@@ -551,7 +520,7 @@
     <t>135&amp;138SS</t>
   </si>
   <si>
-    <t xml:space="preserve">Moreover, we predict that one double mutation (V135S and A138S) in HA significantly enhances α-2,6-linked receptor recognition by the H5 subtype. Our simulations indicate that this double mutation in H5N1 HA increases the binding affinity to α-2,6-linked sialic acid receptors by 2.6 ± 0.7 kcal/mol per HA monomer that primarily arises from the electrostatic interactions. </t>
+    <t>Moreover, we predict that one double mutation (V135S and A138S) in HA significantly enhances α-2,6-linked receptor recognition by the H5 subtype. Our simulations indicate that this double mutation in H5N1 HA increases the binding affinity to α-2,6-linked sialic acid receptors by 2.6 ± 0.7 kcal/mol per HA monomer that primarily arises from the electrostatic interactions.</t>
   </si>
   <si>
     <t>119&amp;186ED</t>
@@ -563,7 +532,7 @@
     <t>140&amp;218&amp;248RKI</t>
   </si>
   <si>
-    <t xml:space="preserve">Although the mutated K140R/E218K/V248I and Y191C/E218K/V248I sequences decreased the HA binding capacity to α2,3-linked SA, they were shown to bind α2,6-linked SA with increased affinity. </t>
+    <t>Although the mutated K140R/E218K/V248I and Y191C/E218K/V248I sequences decreased the HA binding capacity to α2,3-linked SA, they were shown to bind α2,6-linked SA with increased affinity.</t>
   </si>
   <si>
     <t>191&amp;218&amp;248CKI</t>
@@ -572,7 +541,7 @@
     <t>97N</t>
   </si>
   <si>
-    <t xml:space="preserve">In contrast, the HA D97N, R140K, and S217P variants with increased α2,6 Sia binding specificities, but not with increased membrane fusion pH thresholds, showed no significant change in viral replication levels. </t>
+    <t>In contrast, the HA D97N, R140K, and S217P variants with increased α2,6 Sia binding specificities, but not with increased membrane fusion pH thresholds, showed no significant change in viral replication levels.</t>
   </si>
   <si>
     <t>140K</t>
@@ -590,13 +559,13 @@
     <t>193T</t>
   </si>
   <si>
-    <t xml:space="preserve"> The addition of the K193T mutation to the H5 HA of a respiratory-droplet-transmissible virus dramatically improves both binding to human trachea epithelial cells and specificity for extended α2-6-sialylated N-linked glycans recognized by human influenza viruses.</t>
+    <t>The addition of the K193T mutation to the H5 HA of a respiratory-droplet-transmissible virus dramatically improves both binding to human trachea epithelial cells and specificity for extended α2-6-sialylated N-linked glycans recognized by human influenza viruses.</t>
   </si>
   <si>
     <t>192R</t>
   </si>
   <si>
-    <t xml:space="preserve"> This finding implicates Gln192→Arg as a possible determinant of the shift to recognition of the human receptor by VN/3028IIcl3 (Fig. 2a).</t>
+    <t>This finding implicates Gln192→Arg as a possible determinant of the shift to recognition of the human receptor by VN/3028IIcl3 (Fig. 2a).</t>
   </si>
   <si>
     <t>138V</t>
@@ -695,7 +664,7 @@
     <t>165&amp;145ER</t>
   </si>
   <si>
-    <t xml:space="preserve">All 3 secondary mutations increased receptor binding avidity beyond wild-type levels (Fig. 3). Each secondary HA mutation restored the ability of K165E-possessing viruses to agglutinate untreated red blood cells and α2,3- and α2,6-sialylated red blood cells. Each secondary mutation had subtle effects on specificity. </t>
+    <t>All 3 secondary mutations increased receptor binding avidity beyond wild-type levels (Fig. 3). Each secondary HA mutation restored the ability of K165E-possessing viruses to agglutinate untreated red blood cells and α2,3- and α2,6-sialylated red blood cells. Each secondary mutation had subtle effects on specificity.</t>
   </si>
   <si>
     <t>165&amp;224EK</t>
@@ -713,25 +682,25 @@
     <t>222&amp;224LS</t>
   </si>
   <si>
-    <t xml:space="preserve">Introduction of the Q222L and G224S in HAwild-type resulted in a switch in receptor binding specificity from α2,3-SA to α2,6-SA as expected, with no residual α2,3-SA binding. </t>
+    <t>Introduction of the Q222L and G224S in HAwild-type resulted in a switch in receptor binding specificity from α2,3-SA to α2,6-SA as expected, with no residual α2,3-SA binding.</t>
   </si>
   <si>
     <t>103&amp;156YA</t>
   </si>
   <si>
-    <t xml:space="preserve"> Introduction of H103Y and T156A in HAwild-type resulted in increased binding to α2,3-SA and low binding to α2,6-SA. </t>
+    <t>Introduction of H103Y and T156A in HAwild-type resulted in increased binding to α2,3-SA and low binding to α2,6-SA.</t>
   </si>
   <si>
     <t>222&amp;224&amp;103&amp;156LSYA</t>
   </si>
   <si>
-    <t xml:space="preserve">Introduction of H103Y and T156A in HAQ222L, G224S resulted in increased binding to α2,6-SA receptors but also low binding to α2,3-SA. </t>
+    <t>Introduction of H103Y and T156A in HAQ222L, G224S resulted in increased binding to α2,6-SA receptors but also low binding to α2,3-SA.</t>
   </si>
   <si>
     <t>133&amp;155-Y</t>
   </si>
   <si>
-    <t xml:space="preserve">In contrast, a double mutant, Δ133/Ile155Thr, isolated in Egypt has greater avidity for human receptor while retaining wild-type avidity for avian receptor. </t>
+    <t>In contrast, a double mutant, Δ133/Ile155Thr, isolated in Egypt has greater avidity for human receptor while retaining wild-type avidity for avian receptor.</t>
   </si>
   <si>
     <t>H9</t>
@@ -752,7 +721,7 @@
     <t>272S</t>
   </si>
   <si>
-    <t xml:space="preserve"> ISM analysis of H5N1 HA1 sequences of HPAIV circulating between 2006 and 2014 in Egypt suggested that the mutations K153D, S223N and G272S may significantly increase the affinity of these viruses towards the human receptor.</t>
+    <t>ISM analysis of H5N1 HA1 sequences of HPAIV circulating between 2006 and 2014 in Egypt suggested that the mutations K153D, S223N and G272S may significantly increase the affinity of these viruses towards the human receptor.</t>
   </si>
   <si>
     <t>153D</t>
@@ -770,7 +739,7 @@
     <t>219&amp;94SK</t>
   </si>
   <si>
-    <t xml:space="preserve">The N94K substitution significantly increased affinity to both α2,3- and α2,6-linked SA to levels comparable to those seen with the G219S substitution (Fig. 4A, D, and G). </t>
+    <t>The N94K substitution significantly increased affinity to both α2,3- and α2,6-linked SA to levels comparable to those seen with the G219S substitution (Fig. 4A, D, and G).</t>
   </si>
   <si>
     <t>H6</t>
@@ -779,7 +748,7 @@
     <t>223L</t>
   </si>
   <si>
-    <t xml:space="preserve">The single amino acid change of Q226L in HA enables the H6N2 avian influenza virus to bind to the human-type receptor with higher affinity than that to the avian-type receptor  and transmit in guinea pigs via respiratory droplet. </t>
+    <t>The single amino acid change of Q226L in HA enables the H6N2 avian influenza virus to bind to the human-type receptor with higher affinity than that to the avian-type receptor  and transmit in guinea pigs via respiratory droplet.</t>
   </si>
   <si>
     <t>124R</t>
@@ -797,7 +766,7 @@
     <t>156&amp;219QY</t>
   </si>
   <si>
-    <t xml:space="preserve"> Introducing the R156Q+S219Y combination into Vic361e resulted in no detectable binding of the virus to either 3-SLN.</t>
+    <t>Introducing the R156Q+S219Y combination into Vic361e resulted in no detectable binding of the virus to either 3-SLN.</t>
   </si>
   <si>
     <t>190&amp;212VI</t>
@@ -809,7 +778,7 @@
     <t>210-213CompleteDeletion</t>
   </si>
   <si>
-    <t xml:space="preserve">The Δ210–213 deletion mutant showed the largest increase in avidity for 6SLN (&gt;75-fold-stronger relative binding), whereas the Δ208–213 mutant showed a modest increase (&gt;7-fold increase) compared to the wt UDL1/08 virus. </t>
+    <t>The Δ210–213 deletion mutant showed the largest increase in avidity for 6SLN (&gt;75-fold-stronger relative binding), whereas the Δ208–213 mutant showed a modest increase (&gt;7-fold increase) compared to the wt UDL1/08 virus.</t>
   </si>
   <si>
     <t>208-213CompleteDeletion</t>
@@ -818,7 +787,7 @@
     <t>177V</t>
   </si>
   <si>
-    <t xml:space="preserve"> Mutagenesis and structural studies reveal that a G186V substitution is sufficient for H7N9 AIVs to acquire human receptor-binding capacity.(H3 numbering)</t>
+    <t>Mutagenesis and structural studies reveal that a G186V substitution is sufficient for H7N9 AIVs to acquire human receptor-binding capacity.(H3 numbering)</t>
   </si>
   <si>
     <t>120A</t>
@@ -851,7 +820,7 @@
     <t>312R</t>
   </si>
   <si>
-    <t xml:space="preserve"> In addition, it is noted that the mutations of Gln226Leu and Glu312Arg act in favor of the binding of human HA (H7N9) to the avian receptor, while the mutation Asn298Asp acts in the opposite way.</t>
+    <t>In addition, it is noted that the mutations of Gln226Leu and Glu312Arg act in favor of the binding of human HA (H7N9) to the avian receptor, while the mutation Asn298Asp acts in the opposite way.</t>
   </si>
   <si>
     <t>298D</t>
@@ -869,7 +838,7 @@
     <t>234&amp;191L-</t>
   </si>
   <si>
-    <t xml:space="preserve"> The receptor binding site of HA of Egyptian H9N2 viruses has been shown to contain the Q234L substitution along with a H191 mutation, which can increase human-like receptor specificity.</t>
+    <t>The receptor binding site of HA of Egyptian H9N2 viruses has been shown to contain the Q234L substitution along with a H191 mutation, which can increase human-like receptor specificity.</t>
   </si>
   <si>
     <t>186&amp;193&amp;228[GK]TS</t>
@@ -908,7 +877,7 @@
     <t>186&amp;224&amp;228NKS</t>
   </si>
   <si>
-    <t xml:space="preserve">125&amp;151TT </t>
+    <t>125&amp;151TT</t>
   </si>
   <si>
     <t>The A125T+A151T mutations completely abolished human-like receptor binding.</t>
@@ -920,7 +889,7 @@
     <t>TK/14-12AA no longer bound to α2,6-expressing RBCs but gained the ability to bind to α2,3-expressing RBCs. These results indicate that the deletions in HA (partially) switched the TK/14 receptor-binding preference from human to avian type. TK/14-12AA contained a 12-amino acid deletion encompassing amino acids 186 to 197.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 125&amp;127&amp;222&amp;223DEGQ </t>
+    <t>125&amp;127&amp;222&amp;223DEGQ</t>
   </si>
   <si>
     <t>Combinations of N125D, D127E, D222G and R223Q substitutions were introduced to the HA protein of A/Slovenia/2903/2015 (A/SLOV15). A/SLOV15 S13, containing all four HA substitutions, produced approximately 1000-fold more virus than parental V1 during hNEC infection. These data support increased affinity and avidity of binding of S13 to the human-like 6-SLN receptor relative to V1.</t>
@@ -962,7 +931,7 @@
     <t>When the serine at position 28 on light-chain complementarity-determining region 1 (LCDR1) was substituted by a histidine, compared to HNIgGA6, the mutated antibody showed an approximately three-fold increase in HA-binding affinity and 10-fold enhancement in neutralization potency in vitro.</t>
   </si>
   <si>
-    <t xml:space="preserve"> A V186I (H3 numbering) substitution in the receptor-binding site of the hemagglutinin (HA) molecule is responsible for the alteration of the dual-receptor-binding tropism. </t>
+    <t>A V186I (H3 numbering) substitution in the receptor-binding site of the hemagglutinin (HA) molecule is responsible for the alteration of the dual-receptor-binding tropism.</t>
   </si>
   <si>
     <t>210N</t>
@@ -992,13 +961,7 @@
     <t>186&amp;156&amp;263&amp;158TRG-</t>
   </si>
   <si>
-    <t xml:space="preserve"> It also provides evidence that the P186T, H156R, S263G mutations and amino acid deletion at position 158 of the HA protein were instrumental in the switch of the H6N6 virus binding from the avian-like SAα-2,3 Gal receptor to the human-like SAα-2,6 Gal and avian-like SAα-2,3 Gal receptors.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                           </t>
+    <t>It also provides evidence that the P186T, H156R, S263G mutations and amino acid deletion at position 158 of the HA protein were instrumental in the switch of the H6N6 virus binding from the avian-like SAα-2,3 Gal receptor to the human-like SAα-2,6 Gal and avian-like SAα-2,3 Gal receptors.</t>
   </si>
 </sst>
 </file>
@@ -1011,7 +974,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1179,13 +1142,6 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <vertAlign val="subscript"/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1650,9 +1606,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1675,8 +1637,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2011,2046 +1976,2046 @@
   <sheetPr/>
   <dimension ref="A1:E181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="D155" sqref="D155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.85" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="21.646017699115" style="2" customWidth="1"/>
-    <col min="2" max="2" width="28.0176991150442" style="2" customWidth="1"/>
-    <col min="3" max="3" width="20.0442477876106" style="3" customWidth="1"/>
-    <col min="4" max="4" width="58.5486725663717" style="4" customWidth="1"/>
-    <col min="5" max="16384" width="9.02654867256637" style="2"/>
+    <col min="1" max="1" width="21.646017699115" style="4" customWidth="1"/>
+    <col min="2" max="2" width="28.0176991150442" style="4" customWidth="1"/>
+    <col min="3" max="3" width="20.0442477876106" style="5" customWidth="1"/>
+    <col min="4" max="4" width="58.5486725663717" style="6" customWidth="1"/>
+    <col min="5" max="16384" width="9.02654867256637" style="4"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.9" spans="1:4">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" ht="27.75" spans="1:4">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="5">
         <v>20809098</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" ht="69.4" spans="1:4">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" ht="55.5" spans="1:4">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="5">
         <v>34070388</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" ht="27.75" spans="1:4">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="5">
         <v>27339001</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" ht="111" spans="1:4">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="5">
         <v>25135885</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" ht="55.5" spans="1:4">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="5">
         <v>24297491</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" ht="41.65" spans="1:4">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="5">
         <v>20602265</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" ht="27.75" spans="1:4">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="5">
         <v>22809692</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10" ht="41.65" spans="1:4">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="5">
         <v>24109242</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="11" ht="41.65" spans="1:4">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="5">
         <v>24109242</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="12" ht="41.65" spans="1:4">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="5">
         <v>24109242</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" ht="41.65" spans="1:4">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="5">
         <v>24109242</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="14" ht="55.5" spans="1:4">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="5">
         <v>26057148</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="15" ht="69.4" spans="1:4">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="5">
         <v>25479009</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="16" ht="41.65" spans="1:4">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="5">
         <v>29630683</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="6" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="17" ht="41.65" spans="1:4">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="5">
         <v>29630683</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="6" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="18" ht="41.65" spans="1:4">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="5">
         <v>29630683</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="6" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="19" ht="41.65" spans="1:4">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="5">
         <v>29445999</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="20" ht="41.65" spans="1:4">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="5">
         <v>24020758</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="21" ht="41.65" spans="1:4">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="5">
         <v>23671418</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" ht="31.15" spans="1:4">
-      <c r="A22" s="2" t="s">
+    <row r="22" ht="27.75" spans="1:4">
+      <c r="A22" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="5">
         <v>36029091</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="6" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="23" ht="27.75" spans="1:4">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="5">
         <v>23894575</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="6" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="24" ht="27.75" spans="1:4">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="5">
         <v>23894575</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="6" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="25" ht="55.5" spans="1:4">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="5">
         <v>29443887</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="6" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="26" ht="55.5" spans="1:4">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="5">
         <v>20574518</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="6" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="27" ht="41.65" spans="1:4">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="9">
+      <c r="C27" s="5">
         <v>20574518</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="9" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="28" ht="55.5" spans="1:4">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C28" s="5">
         <v>20574518</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="9" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="29" ht="27.75" spans="1:4">
-      <c r="A29" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B29" s="2" t="s">
+      <c r="A29" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="5">
         <v>16343533</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="6" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="30" ht="27.75" spans="1:4">
-      <c r="A30" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B30" s="2" t="s">
+      <c r="A30" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="5">
         <v>25411973</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="6" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="31" ht="41.65" spans="1:4">
-      <c r="A31" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B31" s="2" t="s">
+      <c r="A31" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="5">
         <v>33391219</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="6" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="32" ht="41.65" spans="1:4">
-      <c r="A32" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B32" s="2" t="s">
+      <c r="A32" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="5">
         <v>33391219</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="6" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="33" ht="41.65" spans="1:4">
-      <c r="A33" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B33" s="2" t="s">
+      <c r="A33" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="5">
         <v>33391219</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="6" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="34" ht="41.65" spans="1:4">
-      <c r="A34" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B34" s="2" t="s">
+      <c r="A34" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="5">
         <v>33391219</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="6" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="35" ht="41.65" spans="1:4">
-      <c r="A35" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B35" s="2" t="s">
+      <c r="A35" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="5">
         <v>33391219</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D35" s="6" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="36" ht="41.65" spans="1:4">
-      <c r="A36" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B36" s="2" t="s">
+      <c r="A36" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B36" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="5">
         <v>33391219</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" s="6" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="37" ht="41.65" spans="1:4">
-      <c r="A37" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B37" s="2" t="s">
+      <c r="A37" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B37" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37" s="5">
         <v>33391219</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" s="6" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="38" ht="41.65" spans="1:4">
-      <c r="A38" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B38" s="2" t="s">
+      <c r="A38" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B38" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38" s="5">
         <v>33391219</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" s="6" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="39" ht="41.65" spans="1:4">
-      <c r="A39" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B39" s="2" t="s">
+      <c r="A39" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B39" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39" s="5">
         <v>33391219</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" s="6" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="40" ht="41.65" spans="1:4">
-      <c r="A40" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B40" s="2" t="s">
+      <c r="A40" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B40" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40" s="5">
         <v>33391219</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D40" s="6" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="41" ht="41.65" spans="1:4">
-      <c r="A41" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B41" s="2" t="s">
+      <c r="A41" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B41" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41" s="5">
         <v>33391219</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D41" s="6" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="42" ht="41.65" spans="1:4">
-      <c r="A42" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B42" s="2" t="s">
+      <c r="A42" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B42" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C42" s="5">
         <v>33391219</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D42" s="6" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="43" ht="41.65" spans="1:4">
-      <c r="A43" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B43" s="2" t="s">
+      <c r="A43" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B43" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C43" s="5">
         <v>33391219</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="D43" s="6" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="44" ht="41.65" spans="1:4">
-      <c r="A44" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B44" s="2" t="s">
+      <c r="A44" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B44" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C44" s="5">
         <v>33391219</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="D44" s="6" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="45" ht="41.65" spans="1:4">
-      <c r="A45" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B45" s="2" t="s">
+      <c r="A45" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B45" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C45" s="5">
         <v>33391219</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D45" s="6" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="46" ht="41.65" spans="1:4">
-      <c r="A46" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B46" s="2" t="s">
+      <c r="A46" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B46" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C46" s="3">
+      <c r="C46" s="5">
         <v>15451185</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="D46" s="6" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="47" ht="55.5" spans="1:4">
-      <c r="A47" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B47" s="2" t="s">
+      <c r="A47" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B47" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C47" s="5">
         <v>18353965</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="D47" s="6" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="48" ht="55.5" spans="1:4">
-      <c r="A48" s="2" t="s">
+      <c r="A48" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C48" s="3">
+      <c r="C48" s="5">
         <v>17108965</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="D48" s="6" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="49" ht="69.4" spans="1:4">
-      <c r="A49" s="2" t="s">
+      <c r="A49" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C49" s="3">
+      <c r="C49" s="5">
         <v>17108965</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="D49" s="6" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="50" ht="55.5" spans="1:4">
-      <c r="A50" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B50" s="2" t="s">
+      <c r="A50" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B50" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C50" s="3">
+      <c r="C50" s="5">
         <v>21235490</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="D50" s="6" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="51" ht="83.25" spans="1:4">
-      <c r="A51" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B51" s="2" t="s">
+      <c r="A51" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B51" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C51" s="3">
+      <c r="C51" s="5">
         <v>22258863</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="D51" s="6" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="52" ht="41.65" spans="1:4">
-      <c r="A52" s="2" t="s">
+      <c r="A52" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C52" s="3">
+      <c r="C52" s="5">
         <v>17108965</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="D52" s="6" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="53" ht="13.9" spans="1:4">
-      <c r="A53" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B53" s="2" t="s">
+      <c r="A53" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B53" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C53" s="3">
+      <c r="C53" s="5">
         <v>23824816</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="D53" s="6" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="54" ht="27.75" spans="1:4">
-      <c r="A54" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B54" s="2" t="s">
+      <c r="A54" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B54" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C54" s="3">
+      <c r="C54" s="5">
         <v>23926344</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="D54" s="6" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="55" ht="41.65" spans="1:4">
-      <c r="A55" s="2" t="s">
+      <c r="A55" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B55" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C55" s="3">
+      <c r="C55" s="5">
         <v>17108965</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="D55" s="6" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="56" ht="41.65" spans="1:4">
-      <c r="A56" s="2" t="s">
+      <c r="A56" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C56" s="3">
+      <c r="C56" s="5">
         <v>17108965</v>
       </c>
-      <c r="D56" s="4" t="s">
+      <c r="D56" s="6" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="57" ht="41.65" spans="1:4">
-      <c r="A57" s="2" t="s">
+      <c r="A57" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C57" s="3">
+      <c r="C57" s="5">
         <v>17108965</v>
       </c>
-      <c r="D57" s="4" t="s">
+      <c r="D57" s="6" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="58" ht="41.65" spans="1:4">
-      <c r="A58" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B58" s="2" t="s">
+      <c r="A58" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C58" s="3">
+      <c r="C58" s="5">
         <v>29997206</v>
       </c>
-      <c r="D58" s="4" t="s">
+      <c r="D58" s="6" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="59" ht="55.5" spans="1:4">
-      <c r="A59" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B59" s="2" t="s">
+      <c r="A59" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B59" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C59" s="3">
+      <c r="C59" s="5">
         <v>33606171</v>
       </c>
-      <c r="D59" s="4" t="s">
+      <c r="D59" s="6" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="60" ht="55.5" spans="1:4">
-      <c r="A60" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B60" s="2" t="s">
+      <c r="A60" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B60" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C60" s="3">
+      <c r="C60" s="5">
         <v>33606171</v>
       </c>
-      <c r="D60" s="4" t="s">
+      <c r="D60" s="6" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="61" ht="69.4" spans="1:4">
-      <c r="A61" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B61" s="2" t="s">
+      <c r="A61" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B61" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C61" s="3">
+      <c r="C61" s="5">
         <v>35316713</v>
       </c>
-      <c r="D61" s="4" t="s">
+      <c r="D61" s="6" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="62" ht="69.4" spans="1:4">
-      <c r="A62" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B62" s="2" t="s">
+      <c r="A62" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B62" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C62" s="3">
+      <c r="C62" s="5">
         <v>35316713</v>
       </c>
-      <c r="D62" s="4" t="s">
+      <c r="D62" s="6" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="63" ht="27.75" spans="1:4">
-      <c r="A63" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B63" s="2" t="s">
+      <c r="A63" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B63" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C63" s="3">
+      <c r="C63" s="5">
         <v>35916512</v>
       </c>
-      <c r="D63" s="4" t="s">
+      <c r="D63" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="64" ht="41.65" spans="1:4">
-      <c r="A64" s="2" t="s">
+      <c r="A64" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B64" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C64" s="3">
+      <c r="C64" s="5">
         <v>17108965</v>
       </c>
-      <c r="D64" s="4" t="s">
+      <c r="D64" s="6" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="65" ht="41.65" spans="1:4">
-      <c r="A65" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B65" s="2" t="s">
+      <c r="A65" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B65" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C65" s="3">
+      <c r="C65" s="5">
         <v>15246273</v>
       </c>
-      <c r="D65" s="4" t="s">
+      <c r="D65" s="6" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="66" ht="41.65" spans="1:4">
-      <c r="A66" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B66" s="2" t="s">
+      <c r="A66" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B66" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C66" s="3">
+      <c r="C66" s="5">
         <v>15476872</v>
       </c>
-      <c r="D66" s="4" t="s">
+      <c r="D66" s="6" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="67" ht="41.65" spans="1:4">
-      <c r="A67" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B67" s="2" t="s">
+      <c r="A67" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B67" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C67" s="3">
+      <c r="C67" s="5">
         <v>17690300</v>
       </c>
-      <c r="D67" s="4" t="s">
+      <c r="D67" s="6" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="68" ht="41.65" spans="1:4">
-      <c r="A68" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B68" s="2" t="s">
+      <c r="A68" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B68" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C68" s="3">
+      <c r="C68" s="5">
         <v>17690300</v>
       </c>
-      <c r="D68" s="4" t="s">
+      <c r="D68" s="6" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="69" ht="27.75" spans="1:4">
-      <c r="A69" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B69" s="2" t="s">
+      <c r="A69" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B69" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C69" s="3">
+      <c r="C69" s="5">
         <v>17157891</v>
       </c>
-      <c r="D69" s="4" t="s">
+      <c r="D69" s="6" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="70" ht="27.75" spans="1:4">
-      <c r="A70" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B70" s="2" t="s">
+      <c r="A70" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B70" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C70" s="3">
+      <c r="C70" s="5">
         <v>17157891</v>
       </c>
-      <c r="D70" s="4" t="s">
+      <c r="D70" s="6" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="71" ht="41.65" spans="1:4">
-      <c r="A71" s="2" t="s">
+      <c r="A71" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B71" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C71" s="3">
+      <c r="C71" s="5">
         <v>17108965</v>
       </c>
-      <c r="D71" s="4" t="s">
+      <c r="D71" s="6" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="72" ht="41.65" spans="1:4">
-      <c r="A72" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B72" s="2" t="s">
+      <c r="A72" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B72" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="C72" s="3">
+      <c r="C72" s="5">
         <v>26974849</v>
       </c>
-      <c r="D72" s="4" t="s">
+      <c r="D72" s="6" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="73" ht="41.65" spans="1:4">
-      <c r="A73" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B73" s="2" t="s">
+      <c r="A73" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B73" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="C73" s="3">
+      <c r="C73" s="5">
         <v>26974849</v>
       </c>
-      <c r="D73" s="4" t="s">
+      <c r="D73" s="6" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="74" ht="41.65" spans="1:4">
-      <c r="A74" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B74" s="2" t="s">
+      <c r="A74" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B74" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C74" s="3">
+      <c r="C74" s="5">
         <v>26974849</v>
       </c>
-      <c r="D74" s="4" t="s">
+      <c r="D74" s="6" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="75" ht="27.75" spans="1:4">
-      <c r="A75" s="2" t="s">
+      <c r="A75" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B75" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C75" s="3">
+      <c r="C75" s="5">
         <v>17108965</v>
       </c>
-      <c r="D75" s="4" t="s">
+      <c r="D75" s="6" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="76" ht="27.75" spans="1:4">
-      <c r="A76" s="2" t="s">
+      <c r="A76" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B76" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C76" s="3">
+      <c r="C76" s="5">
         <v>17108965</v>
       </c>
-      <c r="D76" s="4" t="s">
+      <c r="D76" s="6" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="77" ht="55.5" spans="1:4">
-      <c r="A77" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B77" s="2" t="s">
+      <c r="A77" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B77" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C77" s="3">
+      <c r="C77" s="5">
         <v>19367871</v>
       </c>
-      <c r="D77" s="4" t="s">
+      <c r="D77" s="6" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="78" ht="55.5" spans="1:4">
-      <c r="A78" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B78" s="2" t="s">
+      <c r="A78" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B78" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C78" s="3">
+      <c r="C78" s="5">
         <v>19367871</v>
       </c>
-      <c r="D78" s="4" t="s">
+      <c r="D78" s="6" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="79" ht="55.5" spans="1:4">
-      <c r="A79" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B79" s="2" t="s">
+      <c r="A79" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B79" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C79" s="3">
+      <c r="C79" s="5">
         <v>20519408</v>
       </c>
-      <c r="D79" s="4" t="s">
+      <c r="D79" s="6" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="80" ht="27.75" spans="1:4">
-      <c r="A80" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B80" s="2" t="s">
+      <c r="A80" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B80" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C80" s="3">
+      <c r="C80" s="5">
         <v>29118117</v>
       </c>
-      <c r="D80" s="4" t="s">
+      <c r="D80" s="6" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="81" ht="55.5" spans="1:4">
-      <c r="A81" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B81" s="2" t="s">
+      <c r="A81" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B81" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C81" s="3">
+      <c r="C81" s="5">
         <v>21419468</v>
       </c>
-      <c r="D81" s="4" t="s">
+      <c r="D81" s="6" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="82" ht="55.5" spans="1:4">
-      <c r="A82" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B82" s="2" t="s">
+      <c r="A82" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B82" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="C82" s="3">
+      <c r="C82" s="5">
         <v>21808039</v>
       </c>
-      <c r="D82" s="4" t="s">
+      <c r="D82" s="6" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="83" ht="41.65" spans="1:4">
-      <c r="A83" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B83" s="2" t="s">
+      <c r="A83" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B83" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="C83" s="3">
+      <c r="C83" s="5">
         <v>24136722</v>
       </c>
-      <c r="D83" s="4" t="s">
+      <c r="D83" s="6" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="84" ht="27.75" spans="1:4">
-      <c r="A84" s="2" t="s">
+      <c r="A84" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="B84" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="C84" s="3">
+      <c r="C84" s="5">
         <v>17108965</v>
       </c>
-      <c r="D84" s="4" t="s">
+      <c r="D84" s="6" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="85" ht="69.4" spans="1:4">
-      <c r="A85" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B85" s="2" t="s">
+      <c r="A85" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B85" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="C85" s="3">
+      <c r="C85" s="5">
         <v>29059230</v>
       </c>
-      <c r="D85" s="4" t="s">
+      <c r="D85" s="6" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="86" ht="55.5" spans="1:4">
-      <c r="A86" s="2" t="s">
+      <c r="A86" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="B86" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="C86" s="3">
+      <c r="C86" s="5">
         <v>18404209</v>
       </c>
-      <c r="D86" s="4" t="s">
+      <c r="D86" s="6" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="87" ht="41.65" spans="1:4">
-      <c r="A87" s="2" t="s">
+      <c r="A87" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="B87" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="C87" s="3">
+      <c r="C87" s="5">
         <v>18404209</v>
       </c>
-      <c r="D87" s="4" t="s">
+      <c r="D87" s="6" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="88" ht="69.4" spans="1:4">
-      <c r="A88" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B88" s="2" t="s">
+      <c r="A88" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B88" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C88" s="3">
+      <c r="C88" s="5">
         <v>19399777</v>
       </c>
-      <c r="D88" s="4" t="s">
+      <c r="D88" s="6" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="89" ht="41.65" spans="1:4">
-      <c r="A89" s="2" t="s">
+      <c r="A89" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="B89" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="C89" s="3">
+      <c r="C89" s="5">
         <v>19864389</v>
       </c>
-      <c r="D89" s="4" t="s">
+      <c r="D89" s="6" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="90" ht="41.65" spans="1:4">
-      <c r="A90" s="2" t="s">
+      <c r="A90" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="B90" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="C90" s="3">
+      <c r="C90" s="5">
         <v>20980529</v>
       </c>
-      <c r="D90" s="4" t="s">
+      <c r="D90" s="6" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="91" ht="41.65" spans="1:4">
-      <c r="A91" s="2" t="s">
+      <c r="A91" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="B91" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="C91" s="3">
+      <c r="C91" s="5">
         <v>20980529</v>
       </c>
-      <c r="D91" s="4" t="s">
+      <c r="D91" s="6" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="92" ht="41.65" spans="1:4">
-      <c r="A92" s="2" t="s">
+      <c r="A92" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="B92" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="C92" s="3">
+      <c r="C92" s="5">
         <v>29563293</v>
       </c>
-      <c r="D92" s="4" t="s">
+      <c r="D92" s="6" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="93" ht="41.65" spans="1:4">
-      <c r="A93" s="2" t="s">
+      <c r="A93" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="B93" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="C93" s="3">
+      <c r="C93" s="5">
         <v>29563293</v>
       </c>
-      <c r="D93" s="4" t="s">
+      <c r="D93" s="6" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="94" ht="41.65" spans="1:4">
-      <c r="A94" s="2" t="s">
+      <c r="A94" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="B94" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="C94" s="3">
+      <c r="C94" s="5">
         <v>29563293</v>
       </c>
-      <c r="D94" s="4" t="s">
+      <c r="D94" s="6" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="95" ht="41.65" spans="1:4">
-      <c r="A95" s="2" t="s">
+      <c r="A95" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="B95" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="C95" s="3">
+      <c r="C95" s="5">
         <v>19020946</v>
       </c>
-      <c r="D95" s="4" t="s">
+      <c r="D95" s="6" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="96" ht="55.5" spans="1:4">
-      <c r="A96" s="2" t="s">
+      <c r="A96" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B96" s="2" t="s">
+      <c r="B96" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="C96" s="3">
+      <c r="C96" s="5">
         <v>29491160</v>
       </c>
-      <c r="D96" s="4" t="s">
+      <c r="D96" s="6" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="97" ht="27.75" spans="1:4">
-      <c r="A97" s="2" t="s">
+      <c r="A97" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="B97" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="C97" s="3">
+      <c r="C97" s="5">
         <v>17108965</v>
       </c>
-      <c r="D97" s="4" t="s">
+      <c r="D97" s="6" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="98" ht="55.5" spans="1:4">
-      <c r="A98" s="2" t="s">
+      <c r="A98" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B98" s="2" t="s">
+      <c r="B98" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="C98" s="3">
+      <c r="C98" s="5">
         <v>51407526</v>
       </c>
-      <c r="D98" s="4" t="s">
+      <c r="D98" s="6" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="99" ht="41.65" spans="1:4">
-      <c r="A99" s="2" t="s">
+      <c r="A99" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B99" s="2" t="s">
+      <c r="B99" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="C99" s="3">
+      <c r="C99" s="5">
         <v>21173148</v>
       </c>
-      <c r="D99" s="4" t="s">
+      <c r="D99" s="6" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="100" ht="55.5" spans="1:4">
-      <c r="A100" s="2" t="s">
+      <c r="A100" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="B100" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="C100" s="3">
+      <c r="C100" s="5">
         <v>22056389</v>
       </c>
-      <c r="D100" s="4" t="s">
+      <c r="D100" s="6" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="101" ht="69.4" spans="1:4">
-      <c r="A101" s="2" t="s">
+      <c r="A101" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B101" s="2" t="s">
+      <c r="B101" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="C101" s="3">
+      <c r="C101" s="5">
         <v>20011150</v>
       </c>
-      <c r="D101" s="4" t="s">
+      <c r="D101" s="6" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="102" ht="55.5" spans="1:4">
-      <c r="A102" s="2" t="s">
+      <c r="A102" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="B102" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="C102" s="3">
+      <c r="C102" s="5">
         <v>18672252</v>
       </c>
-      <c r="D102" s="4" t="s">
+      <c r="D102" s="6" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="103" ht="55.5" spans="1:4">
-      <c r="A103" s="2" t="s">
+      <c r="A103" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B103" s="2" t="s">
+      <c r="B103" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="C103" s="3">
+      <c r="C103" s="5">
         <v>17626098</v>
       </c>
-      <c r="D103" s="4" t="s">
+      <c r="D103" s="6" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="104" ht="55.5" spans="1:4">
-      <c r="A104" s="2" t="s">
+      <c r="A104" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B104" s="2" t="s">
+      <c r="B104" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="C104" s="3">
+      <c r="C104" s="5">
         <v>17626098</v>
       </c>
-      <c r="D104" s="4" t="s">
+      <c r="D104" s="6" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="105" ht="41.65" spans="1:4">
-      <c r="A105" s="2" t="s">
+      <c r="A105" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B105" s="2" t="s">
+      <c r="B105" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="C105" s="3">
+      <c r="C105" s="5">
         <v>26518983</v>
       </c>
-      <c r="D105" s="4" t="s">
+      <c r="D105" s="6" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="106" ht="83.25" spans="1:4">
-      <c r="A106" s="2" t="s">
+      <c r="A106" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="B106" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="C106" s="3">
+      <c r="C106" s="5">
         <v>26457729</v>
       </c>
-      <c r="D106" s="4" t="s">
+      <c r="D106" s="6" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="107" ht="41.65" spans="1:4">
-      <c r="A107" s="2" t="s">
+      <c r="A107" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B107" s="2" t="s">
+      <c r="B107" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="C107" s="3">
+      <c r="C107" s="5">
         <v>26457729</v>
       </c>
-      <c r="D107" s="4" t="s">
+      <c r="D107" s="6" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="108" ht="69.4" spans="1:4">
-      <c r="A108" s="2" t="s">
+      <c r="A108" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B108" s="2" t="s">
+      <c r="B108" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="C108" s="3">
+      <c r="C108" s="5">
         <v>17108965</v>
       </c>
-      <c r="D108" s="4" t="s">
+      <c r="D108" s="6" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="109" ht="69.4" spans="1:4">
-      <c r="A109" s="2" t="s">
+      <c r="A109" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B109" s="2" t="s">
+      <c r="B109" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C109" s="3">
+      <c r="C109" s="5">
         <v>17108965</v>
       </c>
-      <c r="D109" s="4" t="s">
+      <c r="D109" s="6" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="110" ht="55.5" spans="1:4">
-      <c r="A110" s="2" t="s">
+      <c r="A110" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B110" s="2" t="s">
+      <c r="B110" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="C110" s="3">
+      <c r="C110" s="5">
         <v>22056389</v>
       </c>
-      <c r="D110" s="4" t="s">
+      <c r="D110" s="6" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="111" ht="55.5" spans="1:4">
-      <c r="A111" s="2" t="s">
+      <c r="A111" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="B111" s="2" t="s">
+      <c r="B111" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="C111" s="3">
+      <c r="C111" s="5">
         <v>23925116</v>
       </c>
-      <c r="D111" s="4" t="s">
+      <c r="D111" s="6" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="112" ht="41.65" spans="1:4">
-      <c r="A112" s="2" t="s">
+      <c r="A112" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B112" s="2" t="s">
+      <c r="B112" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="C112" s="3">
+      <c r="C112" s="5">
         <v>32853241</v>
       </c>
-      <c r="D112" s="4" t="s">
+      <c r="D112" s="6" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="113" ht="27.75" spans="1:4">
-      <c r="A113" s="2" t="s">
+      <c r="A113" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B113" s="2" t="s">
+      <c r="B113" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="C113" s="3">
+      <c r="C113" s="5">
         <v>22056389</v>
       </c>
-      <c r="D113" s="4" t="s">
+      <c r="D113" s="6" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="114" ht="27.75" spans="1:4">
-      <c r="A114" s="2" t="s">
+      <c r="A114" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B114" s="2" t="s">
+      <c r="B114" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="C114" s="3">
+      <c r="C114" s="5">
         <v>22056389</v>
       </c>
-      <c r="D114" s="4" t="s">
+      <c r="D114" s="6" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="115" ht="69.4" spans="1:4">
-      <c r="A115" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B115" s="2" t="s">
+      <c r="A115" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B115" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="C115" s="3">
+      <c r="C115" s="5">
         <v>23926344</v>
       </c>
-      <c r="D115" s="4" t="s">
+      <c r="D115" s="6" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="116" ht="69.4" spans="1:4">
-      <c r="A116" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B116" s="2" t="s">
+      <c r="A116" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B116" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="C116" s="3">
+      <c r="C116" s="5">
         <v>23926344</v>
       </c>
-      <c r="D116" s="4" t="s">
+      <c r="D116" s="6" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="117" ht="69.4" spans="1:4">
-      <c r="A117" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B117" s="2" t="s">
+      <c r="A117" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B117" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="C117" s="3">
+      <c r="C117" s="5">
         <v>23926344</v>
       </c>
-      <c r="D117" s="4" t="s">
+      <c r="D117" s="6" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="118" ht="41.65" spans="1:4">
-      <c r="A118" s="2" t="s">
+      <c r="A118" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="B118" s="2" t="s">
+      <c r="B118" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="C118" s="3">
+      <c r="C118" s="5">
         <v>24162312</v>
       </c>
-      <c r="D118" s="4" t="s">
+      <c r="D118" s="6" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="119" ht="41.65" spans="1:4">
-      <c r="A119" s="2" t="s">
+      <c r="A119" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B119" s="2" t="s">
+      <c r="B119" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="C119" s="3">
+      <c r="C119" s="5">
         <v>24725402</v>
       </c>
-      <c r="D119" s="4" t="s">
+      <c r="D119" s="6" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="120" ht="27.75" spans="1:4">
-      <c r="A120" s="2" t="s">
+      <c r="A120" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B120" s="2" t="s">
+      <c r="B120" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="C120" s="3">
+      <c r="C120" s="5">
         <v>24725402</v>
       </c>
-      <c r="D120" s="4" t="s">
+      <c r="D120" s="6" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="121" ht="27.75" spans="1:4">
-      <c r="A121" s="2" t="s">
+      <c r="A121" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B121" s="2" t="s">
+      <c r="B121" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="C121" s="3">
+      <c r="C121" s="5">
         <v>24725402</v>
       </c>
-      <c r="D121" s="4" t="s">
+      <c r="D121" s="6" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="122" ht="41.65" spans="1:4">
-      <c r="A122" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B122" s="2" t="s">
+      <c r="A122" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B122" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="C122" s="3">
+      <c r="C122" s="5">
         <v>24889237</v>
       </c>
-      <c r="D122" s="4" t="s">
+      <c r="D122" s="6" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="123" ht="27.75" spans="1:4">
-      <c r="A123" s="2" t="s">
+      <c r="A123" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="B123" s="2" t="s">
+      <c r="B123" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="C123" s="3">
+      <c r="C123" s="5">
         <v>25782865</v>
       </c>
-      <c r="D123" s="4" t="s">
+      <c r="D123" s="6" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="124" ht="27.75" spans="1:4">
-      <c r="A124" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B124" s="2" t="s">
+      <c r="A124" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B124" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="C124" s="3">
+      <c r="C124" s="5">
         <v>25940072</v>
       </c>
-      <c r="D124" s="4" t="s">
+      <c r="D124" s="6" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="125" ht="55.5" spans="1:4">
-      <c r="A125" s="2" t="s">
+      <c r="A125" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B125" s="2" t="s">
+      <c r="B125" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="C125" s="3">
+      <c r="C125" s="5">
         <v>26091504</v>
       </c>
-      <c r="D125" s="4" t="s">
+      <c r="D125" s="6" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="126" ht="55.5" spans="1:4">
-      <c r="A126" s="2" t="s">
+      <c r="A126" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B126" s="2" t="s">
+      <c r="B126" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="C126" s="3">
+      <c r="C126" s="5">
         <v>26091504</v>
       </c>
-      <c r="D126" s="4" t="s">
+      <c r="D126" s="6" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="127" ht="27.75" spans="1:4">
-      <c r="A127" s="2" t="s">
+      <c r="A127" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B127" s="2" t="s">
+      <c r="B127" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="C127" s="3">
+      <c r="C127" s="5">
         <v>24050651</v>
       </c>
-      <c r="D127" s="4" t="s">
+      <c r="D127" s="6" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="128" ht="27.75" spans="1:4">
-      <c r="A128" s="2" t="s">
+      <c r="A128" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B128" s="2" t="s">
+      <c r="B128" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="C128" s="3">
+      <c r="C128" s="5">
         <v>24050651</v>
       </c>
-      <c r="D128" s="4" t="s">
+      <c r="D128" s="6" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="129" ht="41.65" spans="1:4">
-      <c r="A129" s="2" t="s">
+      <c r="A129" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="B129" s="2" t="s">
+      <c r="B129" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="C129" s="3">
+      <c r="C129" s="5">
         <v>26792744</v>
       </c>
-      <c r="D129" s="4" t="s">
+      <c r="D129" s="6" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="130" ht="55.5" spans="1:4">
-      <c r="A130" s="2" t="s">
+      <c r="A130" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="B130" s="2" t="s">
+      <c r="B130" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="C130" s="3">
+      <c r="C130" s="5">
         <v>28951329</v>
       </c>
-      <c r="D130" s="4" t="s">
+      <c r="D130" s="6" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="131" ht="83.25" spans="1:4">
-      <c r="A131" s="2" t="s">
+      <c r="A131" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="B131" s="2" t="s">
+      <c r="B131" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="C131" s="3">
+      <c r="C131" s="5">
         <v>36466692</v>
       </c>
-      <c r="D131" s="4" t="s">
+      <c r="D131" s="6" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="132" ht="55.5" spans="1:4">
-      <c r="A132" s="2" t="s">
+      <c r="A132" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="B132" s="2" t="s">
+      <c r="B132" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="C132" s="3">
+      <c r="C132" s="5">
         <v>23925116</v>
       </c>
-      <c r="D132" s="4" t="s">
+      <c r="D132" s="6" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="133" ht="55.5" spans="1:4">
-      <c r="A133" s="2" t="s">
+      <c r="A133" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="B133" s="2" t="s">
+      <c r="B133" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="C133" s="3">
+      <c r="C133" s="5">
         <v>23925116</v>
       </c>
-      <c r="D133" s="4" t="s">
+      <c r="D133" s="6" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="134" ht="27.75" spans="1:4">
-      <c r="A134" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B134" s="2" t="s">
+      <c r="A134" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B134" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="C134" s="3">
+      <c r="C134" s="5">
         <v>26974849</v>
       </c>
-      <c r="D134" s="4" t="s">
+      <c r="D134" s="6" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="135" ht="41.65" spans="1:4">
-      <c r="A135" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B135" s="2" t="s">
+      <c r="A135" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B135" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="C135" s="3">
+      <c r="C135" s="5">
         <v>28148793</v>
       </c>
-      <c r="D135" s="4" t="s">
+      <c r="D135" s="6" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="136" ht="55.5" spans="1:4">
-      <c r="A136" s="2" t="s">
+      <c r="A136" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="B136" s="2" t="s">
+      <c r="B136" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="C136" s="3">
+      <c r="C136" s="5">
         <v>28468875</v>
       </c>
-      <c r="D136" s="4" t="s">
+      <c r="D136" s="6" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="137" ht="55.5" spans="1:4">
-      <c r="A137" s="2" t="s">
+      <c r="A137" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="B137" s="2" t="s">
+      <c r="B137" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="C137" s="3">
+      <c r="C137" s="5">
         <v>28468875</v>
       </c>
-      <c r="D137" s="4" t="s">
+      <c r="D137" s="6" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="138" ht="41.65" spans="1:4">
-      <c r="A138" s="2" t="s">
+      <c r="A138" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="B138" s="2" t="s">
+      <c r="B138" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="C138" s="3">
+      <c r="C138" s="5">
         <v>31747596</v>
       </c>
-      <c r="D138" s="4" t="s">
+      <c r="D138" s="6" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="139" ht="97.15" spans="1:4">
-      <c r="A139" s="2" t="s">
+      <c r="A139" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="B139" s="2" t="s">
+      <c r="B139" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="C139" s="3">
+      <c r="C139" s="5">
         <v>22674977</v>
       </c>
-      <c r="D139" s="4" t="s">
+      <c r="D139" s="6" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="140" ht="41.65" spans="1:4">
-      <c r="A140" s="2" t="s">
+      <c r="A140" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="B140" s="2" t="s">
+      <c r="B140" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="C140" s="3">
+      <c r="C140" s="5">
         <v>32699084</v>
       </c>
-      <c r="D140" s="4" t="s">
+      <c r="D140" s="6" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="141" ht="41.65" spans="1:4">
-      <c r="A141" s="2" t="s">
+      <c r="A141" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="B141" s="2" t="s">
+      <c r="B141" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="C141" s="3">
+      <c r="C141" s="5">
         <v>32699084</v>
       </c>
-      <c r="D141" s="4" t="s">
+      <c r="D141" s="6" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="142" ht="69.4" spans="1:4">
-      <c r="A142" s="2" t="s">
+      <c r="A142" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="B142" s="2" t="s">
+      <c r="B142" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="C142" s="3">
+      <c r="C142" s="5">
         <v>28468875</v>
       </c>
-      <c r="D142" s="4" t="s">
+      <c r="D142" s="6" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="143" ht="41.65" spans="1:4">
-      <c r="A143" s="2" t="s">
+      <c r="A143" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="B143" s="2" t="s">
+      <c r="B143" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="C143" s="3">
+      <c r="C143" s="5">
         <v>32796071</v>
       </c>
-      <c r="D143" s="4" t="s">
+      <c r="D143" s="6" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="144" ht="41.65" spans="1:4">
-      <c r="A144" s="2" t="s">
+      <c r="A144" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="B144" s="2" t="s">
+      <c r="B144" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="C144" s="3">
+      <c r="C144" s="5">
         <v>25068439</v>
       </c>
-      <c r="D144" s="4" t="s">
+      <c r="D144" s="6" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="145" ht="41.65" spans="1:4">
-      <c r="A145" s="2" t="s">
+      <c r="A145" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="B145" s="2" t="s">
+      <c r="B145" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="C145" s="3">
+      <c r="C145" s="5">
         <v>25068439</v>
       </c>
-      <c r="D145" s="4" t="s">
+      <c r="D145" s="6" t="s">
         <v>254</v>
       </c>
     </row>
@@ -4061,39 +4026,39 @@
       <c r="B146" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="C146" s="3">
+      <c r="C146" s="10">
         <v>28468875</v>
       </c>
-      <c r="D146" s="4" t="s">
+      <c r="D146" s="11" t="s">
         <v>250</v>
       </c>
       <c r="E146" s="2"/>
     </row>
     <row r="147" ht="27.75" spans="1:4">
-      <c r="A147" s="2" t="s">
+      <c r="A147" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="B147" s="2" t="s">
+      <c r="B147" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="C147" s="3">
+      <c r="C147" s="5">
         <v>26792744</v>
       </c>
-      <c r="D147" s="4" t="s">
+      <c r="D147" s="6" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="148" ht="41.65" spans="1:5">
+    <row r="148" s="2" customFormat="1" ht="41.65" spans="1:5">
       <c r="A148" s="1" t="s">
         <v>215</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="C148" s="11">
+      <c r="C148" s="12">
         <v>29522492</v>
       </c>
-      <c r="D148" s="12" t="s">
+      <c r="D148" s="13" t="s">
         <v>260</v>
       </c>
       <c r="E148" s="1"/>
@@ -4105,333 +4070,333 @@
       <c r="B149" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="C149" s="3">
+      <c r="C149" s="10">
         <v>32455845</v>
       </c>
-      <c r="D149" s="4" t="s">
+      <c r="D149" s="11" t="s">
         <v>262</v>
       </c>
       <c r="E149" s="2"/>
     </row>
     <row r="150" ht="41.65" spans="1:4">
-      <c r="A150" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B150" s="2" t="s">
+      <c r="A150" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B150" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="C150" s="3">
+      <c r="C150" s="5">
         <v>36103978</v>
       </c>
-      <c r="D150" s="4" t="s">
+      <c r="D150" s="6" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="151" ht="41.65" spans="1:4">
-      <c r="A151" s="2" t="s">
+      <c r="A151" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="B151" s="2" t="s">
+      <c r="B151" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="C151" s="3">
+      <c r="C151" s="5">
         <v>26552719</v>
       </c>
-      <c r="D151" s="4" t="s">
+      <c r="D151" s="6" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="152" s="1" customFormat="1" ht="41.65" spans="1:4">
-      <c r="A152" s="1" t="s">
+    <row r="152" s="3" customFormat="1" ht="41.65" spans="1:4">
+      <c r="A152" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="B152" s="1" t="s">
+      <c r="B152" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="C152" s="11">
+      <c r="C152" s="14">
         <v>26552719</v>
       </c>
-      <c r="D152" s="12" t="s">
+      <c r="D152" s="15" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="153" ht="41.65" spans="1:4">
-      <c r="A153" s="2" t="s">
+      <c r="A153" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="B153" s="2" t="s">
+      <c r="B153" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="C153" s="3">
+      <c r="C153" s="5">
         <v>30561311</v>
       </c>
-      <c r="D153" s="4" t="s">
+      <c r="D153" s="6" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="154" ht="27.75" spans="1:4">
-      <c r="A154" s="2" t="s">
+      <c r="A154" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="B154" s="2" t="s">
+      <c r="B154" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="C154" s="3">
+      <c r="C154" s="5">
         <v>35706014</v>
       </c>
-      <c r="D154" s="4" t="s">
+      <c r="D154" s="6" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="155" ht="69.4" spans="1:4">
-      <c r="A155" s="2" t="s">
+      <c r="A155" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="B155" s="2" t="s">
+      <c r="B155" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="C155" s="3">
+      <c r="C155" s="5">
         <v>32455845</v>
       </c>
-      <c r="D155" s="4" t="s">
+      <c r="D155" s="6" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="156" ht="27.75" spans="1:4">
-      <c r="A156" s="2" t="s">
+      <c r="A156" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="B156" s="2" t="s">
+      <c r="B156" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="C156" s="3">
+      <c r="C156" s="5">
         <v>32699084</v>
       </c>
-      <c r="D156" s="4" t="s">
+      <c r="D156" s="6" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="157" ht="69.4" spans="1:4">
-      <c r="A157" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B157" s="2" t="s">
+      <c r="A157" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B157" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="C157" s="3">
+      <c r="C157" s="5">
         <v>34872354</v>
       </c>
-      <c r="D157" s="4" t="s">
+      <c r="D157" s="6" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="158" ht="83.25" spans="1:4">
-      <c r="A158" s="2" t="s">
+      <c r="A158" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B158" s="2" t="s">
+      <c r="B158" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="C158" s="3">
+      <c r="C158" s="5">
         <v>35622874</v>
       </c>
-      <c r="D158" s="4" t="s">
+      <c r="D158" s="6" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="159" ht="55.5" spans="1:4">
-      <c r="A159" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B159" s="2" t="s">
+      <c r="A159" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B159" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="C159" s="3">
+      <c r="C159" s="5">
         <v>35916512</v>
       </c>
-      <c r="D159" s="4" t="s">
+      <c r="D159" s="6" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="160" ht="27.75" spans="1:4">
-      <c r="A160" s="2" t="s">
+      <c r="A160" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="B160" s="2" t="s">
+      <c r="B160" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="C160" s="3">
+      <c r="C160" s="5">
         <v>32853848</v>
       </c>
-      <c r="D160" s="4" t="s">
+      <c r="D160" s="6" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="161" ht="41.65" spans="1:4">
-      <c r="A161" s="2" t="s">
+      <c r="A161" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B161" s="2" t="s">
+      <c r="B161" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="C161" s="3">
+      <c r="C161" s="5">
         <v>31597765</v>
       </c>
-      <c r="D161" s="4" t="s">
+      <c r="D161" s="6" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="162" ht="41.65" spans="1:4">
-      <c r="A162" s="2" t="s">
+      <c r="A162" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B162" s="2" t="s">
+      <c r="B162" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="C162" s="3">
+      <c r="C162" s="5">
         <v>31597765</v>
       </c>
-      <c r="D162" s="4" t="s">
+      <c r="D162" s="6" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="163" ht="27.75" spans="1:4">
-      <c r="A163" s="2" t="s">
+      <c r="A163" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="B163" s="2" t="s">
+      <c r="B163" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="C163" s="3">
+      <c r="C163" s="5">
         <v>32641475</v>
       </c>
-      <c r="D163" s="4" t="s">
+      <c r="D163" s="6" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="164" ht="55.5" spans="1:4">
-      <c r="A164" s="2" t="s">
+      <c r="A164" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="B164" s="2" t="s">
+      <c r="B164" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="C164" s="3">
+      <c r="C164" s="5">
         <v>32636820</v>
       </c>
-      <c r="D164" s="4" t="s">
+      <c r="D164" s="6" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="165" ht="41.65" spans="1:4">
-      <c r="A165" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B165" s="2" t="s">
+      <c r="A165" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B165" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C165" s="3">
+      <c r="C165" s="5">
         <v>32337071</v>
       </c>
-      <c r="D165" s="4" t="s">
+      <c r="D165" s="6" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="166" ht="41.65" spans="1:4">
-      <c r="A166" s="2" t="s">
+      <c r="A166" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B166" s="2" t="s">
+      <c r="B166" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="C166" s="3">
+      <c r="C166" s="5">
         <v>32602461</v>
       </c>
-      <c r="D166" s="4" t="s">
+      <c r="D166" s="6" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="167" ht="13.9" spans="1:4">
-      <c r="A167" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B167" s="2" t="s">
+      <c r="A167" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B167" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="C167" s="3">
+      <c r="C167" s="5">
         <v>34555124</v>
       </c>
-      <c r="D167" s="4" t="s">
+      <c r="D167" s="6" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="168" ht="13.9" spans="1:4">
-      <c r="A168" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B168" s="2" t="s">
+      <c r="A168" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B168" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="C168" s="3">
+      <c r="C168" s="5">
         <v>34555124</v>
       </c>
-      <c r="D168" s="4" t="s">
+      <c r="D168" s="6" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="169" ht="13.9" spans="1:4">
-      <c r="A169" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B169" s="2" t="s">
+      <c r="A169" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B169" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="C169" s="3">
+      <c r="C169" s="5">
         <v>34555124</v>
       </c>
-      <c r="D169" s="4" t="s">
+      <c r="D169" s="6" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="170" ht="13.9" spans="1:4">
-      <c r="A170" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B170" s="2" t="s">
+      <c r="A170" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B170" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="C170" s="3">
+      <c r="C170" s="5">
         <v>34555124</v>
       </c>
-      <c r="D170" s="4" t="s">
+      <c r="D170" s="6" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="171" ht="27.75" spans="1:4">
-      <c r="A171" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B171" s="2" t="s">
+      <c r="A171" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B171" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="C171" s="3">
+      <c r="C171" s="5">
         <v>35916512</v>
       </c>
-      <c r="D171" s="4" t="s">
+      <c r="D171" s="6" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="172" ht="69.4" spans="1:4">
-      <c r="A172" s="2" t="s">
+      <c r="A172" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="B172" s="2" t="s">
+      <c r="B172" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="C172" s="3">
+      <c r="C172" s="5">
         <v>36189435</v>
       </c>
-      <c r="D172" s="4" t="s">
+      <c r="D172" s="6" t="s">
         <v>301</v>
       </c>
     </row>
@@ -4442,13 +4407,11 @@
       <c r="D173"/>
       <c r="E173"/>
     </row>
-    <row r="174" spans="1:5">
+    <row r="174" ht="13.5" spans="1:5">
       <c r="A174"/>
       <c r="B174"/>
       <c r="C174"/>
-      <c r="D174" t="s">
-        <v>302</v>
-      </c>
+      <c r="D174"/>
       <c r="E174"/>
     </row>
     <row r="175" ht="13.5" spans="1:5">
@@ -4458,35 +4421,31 @@
       <c r="D175"/>
       <c r="E175"/>
     </row>
-    <row r="176" spans="1:5">
+    <row r="176" ht="13.5" spans="1:5">
       <c r="A176"/>
       <c r="B176"/>
       <c r="C176"/>
       <c r="D176"/>
       <c r="E176"/>
     </row>
-    <row r="177" spans="1:5">
+    <row r="177" ht="13.5" spans="1:5">
       <c r="A177"/>
       <c r="B177"/>
       <c r="C177"/>
       <c r="D177"/>
       <c r="E177"/>
     </row>
-    <row r="178" spans="1:5">
+    <row r="178" ht="13.5" spans="1:5">
       <c r="A178"/>
       <c r="B178"/>
       <c r="C178"/>
       <c r="D178"/>
       <c r="E178"/>
     </row>
-    <row r="181" ht="13.9" spans="4:4">
-      <c r="D181" s="4" t="s">
-        <v>303</v>
-      </c>
-    </row>
+    <row r="181" ht="13.9"/>
   </sheetData>
   <autoFilter ref="A1:E174">
-    <sortState ref="A2:E174">
+    <sortState ref="A1:E174">
       <sortCondition ref="C1"/>
     </sortState>
     <extLst/>
